--- a/Gestion de projet/Registre des livrables.xlsx
+++ b/Gestion de projet/Registre des livrables.xlsx
@@ -208,12 +208,6 @@
     <t>Yohann Hay / Guillaume Hervieu</t>
   </si>
   <si>
-    <t>Armand Charbonnier / Quentin Bisson</t>
-  </si>
-  <si>
-    <t>Guillaume Hervieu / Pierre Bonnet</t>
-  </si>
-  <si>
     <t>David Charpentier</t>
   </si>
   <si>
@@ -349,6 +343,12 @@
   </si>
   <si>
     <t>Description des procédures de tests du lot d'interfaçage</t>
+  </si>
+  <si>
+    <t>Guillaume Hervieu / Quentin Bisson</t>
+  </si>
+  <si>
+    <t>Armand Charbonnier / Pierre Bonnet</t>
   </si>
 </sst>
 </file>
@@ -712,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,10 +779,10 @@
         <v>41614</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -799,7 +799,7 @@
         <v>41614</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>61</v>
@@ -819,7 +819,7 @@
         <v>41635</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>63</v>
@@ -839,10 +839,10 @@
         <v>41653</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>64</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -859,7 +859,7 @@
         <v>41614</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>47</v>
@@ -879,7 +879,7 @@
         <v>41614</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>46</v>
@@ -899,7 +899,7 @@
         <v>41628</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>62</v>
@@ -919,7 +919,7 @@
         <v>41614</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>48</v>
@@ -939,7 +939,7 @@
         <v>41628</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>49</v>
@@ -959,7 +959,7 @@
         <v>41628</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>50</v>
@@ -979,7 +979,7 @@
         <v>41635</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>52</v>
@@ -999,7 +999,7 @@
         <v>41653</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>53</v>
@@ -1019,7 +1019,7 @@
         <v>41628</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>50</v>
@@ -1039,10 +1039,10 @@
         <v>41614</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1059,10 +1059,10 @@
         <v>41628</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1079,10 +1079,10 @@
         <v>41628</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1099,10 +1099,10 @@
         <v>41635</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1119,10 +1119,10 @@
         <v>41653</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1139,10 +1139,10 @@
         <v>41628</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1159,10 +1159,10 @@
         <v>41614</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1179,10 +1179,10 @@
         <v>41628</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1199,10 +1199,10 @@
         <v>41628</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1219,10 +1219,10 @@
         <v>41635</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1239,10 +1239,10 @@
         <v>41653</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1259,10 +1259,10 @@
         <v>41628</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1279,7 +1279,7 @@
         <v>41614</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>54</v>
@@ -1299,7 +1299,7 @@
         <v>41628</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>55</v>
@@ -1319,7 +1319,7 @@
         <v>41628</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>56</v>
@@ -1339,7 +1339,7 @@
         <v>41635</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>58</v>
@@ -1359,7 +1359,7 @@
         <v>41653</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>59</v>
@@ -1379,7 +1379,7 @@
         <v>41628</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>55</v>
@@ -1399,7 +1399,7 @@
         <v>41628</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>57</v>
@@ -1420,7 +1420,7 @@
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1438,7 +1438,7 @@
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1492,7 +1492,7 @@
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1510,7 +1510,7 @@
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
